--- a/data/trans_camb/P34_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P34_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,79</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>-4,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,56</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 22,45</t>
+          <t>-19,7; 18,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 21,99</t>
+          <t>-21,28; 16,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 11,47</t>
+          <t>-25,96; 13,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 7,73</t>
+          <t>-9,95; 19,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 11,95</t>
+          <t>-11,03; 18,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 10,4</t>
+          <t>-14,45; 14,56</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-8,92; 15,46</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 14,5</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-12,38; 10,7</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
+          <t>-4,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>36,57%</t>
+          <t>-12,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>-22,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>23,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13,48%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-9,72%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 150,29</t>
+          <t>-66,54; 139,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 143,35</t>
+          <t>-71,1; 119,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-36,32; 117,46</t>
+          <t>-76,89; 97,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-53,49; 80,34</t>
+          <t>-39,01; 159,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 88,63</t>
+          <t>-43,62; 153,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 76,65</t>
+          <t>-58,47; 120,42</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-36,07; 122,57</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-40,8; 118,67</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-51,7; 82,82</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-4,18</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 7,37</t>
+          <t>-12,52; 8,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 8,05</t>
+          <t>-11,04; 10,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 7,33</t>
+          <t>-10,58; 15,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 8,6</t>
+          <t>-8,98; 6,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 5,15</t>
+          <t>-9,67; 6,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 5,91</t>
+          <t>-11,93; 3,4</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 4,97</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 5,79</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-8,66; 7,31</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,44%</t>
+          <t>-7,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,61%</t>
+          <t>-3,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,39%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>-5,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,56%</t>
+          <t>-6,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>-22,3%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-6,2%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-3,45%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-5,63%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 30,15</t>
+          <t>-39,39; 37,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,67; 34,09</t>
+          <t>-34,65; 47,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 40,3</t>
+          <t>-34,26; 66,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 48,87</t>
+          <t>-39,27; 42,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 23,78</t>
+          <t>-41,3; 46,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 27,0</t>
+          <t>-51,09; 24,21</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-32,05; 24,88</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-30,41; 29,27</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-32,71; 34,6</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,93</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,8</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,67</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 7,7</t>
+          <t>-8,41; 8,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 7,89</t>
+          <t>-7,47; 9,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 8,2</t>
+          <t>-10,14; 5,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 9,26</t>
+          <t>-8,66; 8,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 5,57</t>
+          <t>-7,79; 9,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 6,36</t>
+          <t>-9,03; 8,45</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 5,46</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 6,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 4,78</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>-17,99%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>-0,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>-4,54%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-0,5%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-10,8%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,57; 96,66</t>
+          <t>-53,61; 106,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 101,55</t>
+          <t>-49,38; 121,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 61,32</t>
+          <t>-68,35; 81,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 67,11</t>
+          <t>-39,82; 59,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 45,7</t>
+          <t>-34,86; 67,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 52,32</t>
+          <t>-40,6; 58,22</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-33,62; 46,36</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-30,57; 55,04</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-42,01; 41,1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 7,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 7,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 5,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 4,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 4,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 38,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 39,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 27,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 33,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 24,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 27,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,9</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,13</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,96; 6,03</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,79; 6,13</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-7,69; 8,0</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-5,39; 5,57</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-5,21; 5,76</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-7,77; 3,25</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 4,03</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 4,51</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 3,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-4,41%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-2,86%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1,04%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-11,42%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-1,56%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-6,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-29,9; 35,51</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-32,27; 36,34</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-32,21; 45,78</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-25,45; 35,92</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-24,44; 34,89</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-36,28; 22,25</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-20,81; 23,32</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-19,59; 26,56</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-28,43; 18,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
